--- a/Aplicacion Final/2024/Resumen_Jugadores_AL_2024.xlsx
+++ b/Aplicacion Final/2024/Resumen_Jugadores_AL_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alvaro\Proyectos\Proyecto Gronestats\GroneStats\Aplicacion Final\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E576AB-C6CF-4780-BBB0-B169D0D4FAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB56D0E-0695-4220-A348-174DB35E07C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$M$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$N$29</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="128">
   <si>
     <t>Jugador</t>
   </si>
@@ -396,9 +396,6 @@
     <t>Clausura Liga 1</t>
   </si>
   <si>
-    <t>Dorsal 2024</t>
-  </si>
-  <si>
     <t>Erick Noriega</t>
   </si>
   <si>
@@ -406,6 +403,15 @@
   </si>
   <si>
     <t>Noriega</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>shortName</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -803,1215 +809,1198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="6">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6">
         <v>31</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L2" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M2" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="5">
-        <v>12</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="6">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
         <v>22</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L3" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M3" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="5">
-        <v>32</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="6">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6">
         <v>25</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L4" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M4" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="5">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
         <v>31</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L5" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M5" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="5">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <v>24</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L6" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M6" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="5">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <v>34</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L7" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="5">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6">
         <v>31</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L8" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M8" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="5">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="6">
         <v>24</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M9" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="5">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
         <v>23</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L10" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M10" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="5">
-        <v>15</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G11" s="6">
         <v>28</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M11" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="5">
-        <v>16</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6">
         <v>23</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M12" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="5">
-        <v>20</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="6">
         <v>26</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L13" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M13" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="6">
         <v>26</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="6">
-        <v>26</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L14" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M14" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="5">
-        <v>27</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="6">
         <v>19</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L15" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M15" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="5">
-        <v>9</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6">
         <v>40</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L16" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M16" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="5">
-        <v>18</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="6">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6">
         <v>21</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="I17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L17" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M17" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="5">
-        <v>19</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6">
         <v>27</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="I18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K18" s="7" t="b">
-        <v>0</v>
       </c>
       <c r="L18" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M18" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="5">
-        <v>22</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6">
         <v>18</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K19" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L19" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M19" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="5">
-        <v>30</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6">
         <v>33</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="I20" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L20" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M20" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="5">
-        <v>2</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="6">
+      <c r="G21" s="6">
         <v>24</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="I21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L21" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M21" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="5">
-        <v>4</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6">
         <v>19</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L22" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M22" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="5">
-        <v>6</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
         <v>28</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L23" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M23" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="5">
-        <v>13</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="6">
+      <c r="G24" s="6">
         <v>28</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L24" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M24" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N24" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="5">
-        <v>21</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
         <v>20</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L25" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M25" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="5">
-        <v>25</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="6">
+      <c r="G26" s="6">
         <v>21</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L26" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M26" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="6">
         <v>29</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="6">
-        <v>29</v>
-      </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="J27" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L27" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M27" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="5">
-        <v>31</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6">
         <v>29</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="L28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M28" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="9">
-        <v>55</v>
-      </c>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="E29" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="F29" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="10">
+      <c r="G29" s="10">
         <v>35</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>11</v>
-      </c>
       <c r="H29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="J29" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="K29" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="11" t="b">
-        <v>1</v>
-      </c>
       <c r="L29" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M29" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10">
+        <v>22</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="9">
-        <v>3</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10">
+      <c r="J30" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K30" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="11" t="b">
-        <v>0</v>
       </c>
       <c r="L30" s="11" t="b">
         <v>0</v>
       </c>
       <c r="M30" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" s="11" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M29" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M29">
-      <sortCondition descending="1" ref="J1:J29"/>
+  <autoFilter ref="A1:N29" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N29">
+      <sortCondition descending="1" ref="K1:K29"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
